--- a/xj/巡检2/设备信息表.xlsx
+++ b/xj/巡检2/设备信息表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianghw\PycharmProjects\py3_net_xj\巡检2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianghw\PycharmProjects\pythonProject\xj\巡检2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4C9FB3-22D7-4638-A949-72B7D2D4477A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3844FDA5-7C19-4CD3-AEF0-C93A4A2DD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>show ver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,13 +51,6 @@
   <si>
     <t>hp_comware</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">disp ip int b </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>display version</t>
   </si>
   <si>
     <t>设备名称
@@ -127,6 +120,86 @@
   </si>
   <si>
     <t>R3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_comware</t>
+  </si>
+  <si>
+    <t>int g 0/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip addr 192.168.100.100 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disp this</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int g 0/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int g 0/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int g 0/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip addr 192.168.101.100 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip addr 192.168.102.100 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip addr 192.168.103.100 24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.11</t>
+  </si>
+  <si>
+    <t>192.168.56.12</t>
+  </si>
+  <si>
+    <t>192.168.56.13</t>
+  </si>
+  <si>
+    <t>192.168.56.14</t>
+  </si>
+  <si>
+    <t>192.168.56.15</t>
+  </si>
+  <si>
+    <t>192.168.56.16</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>命令
+comm_sheet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -525,44 +598,48 @@
     <col min="7" max="7" width="14.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="17" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -574,15 +651,18 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -594,15 +674,18 @@
         <v>4</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -614,11 +697,157 @@
         <v>4</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I10" xr:uid="{F70753DB-7E4A-4464-8ED6-E43D7A753CA3}">
+      <formula1>"cisco_asa,cisco_ios,cisco_nxos,cisco_xe,cisco_xr,f5_ltm,f5_tmsh,fortinet,hp_comware,huawei,ruijie_os,juniper"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -626,35 +855,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294F40A8-CC95-4283-ADE6-3E8AE7ABA1F1}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +959,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
